--- a/RUDN/Importance/Varible_muatal_in_South-Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_South-Eastern Asia.xlsx
@@ -28,15 +28,15 @@
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -46,21 +46,21 @@
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Population ages 45-49, male (% of male population)</t>
+    <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
@@ -73,15 +73,15 @@
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
@@ -151,21 +151,21 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
@@ -250,36 +250,36 @@
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Female population 25-29</t>
   </si>
   <si>
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
@@ -304,21 +304,21 @@
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
@@ -409,84 +409,84 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
@@ -514,21 +514,21 @@
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -592,6 +592,9 @@
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
@@ -601,9 +604,6 @@
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
@@ -655,54 +655,54 @@
     <t>Number of maternal deaths</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -715,60 +715,60 @@
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
+    <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
@@ -808,10 +808,13 @@
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
@@ -820,9 +823,6 @@
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
@@ -832,12 +832,12 @@
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
@@ -868,13 +868,16 @@
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
@@ -883,15 +886,12 @@
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
+    <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
@@ -913,15 +913,18 @@
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
@@ -931,94 +934,94 @@
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
     <t>Contributing family workers, male (% of male employment)</t>
@@ -1030,9 +1033,6 @@
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
@@ -1045,15 +1045,15 @@
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
@@ -1063,40 +1063,55 @@
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
@@ -1105,81 +1120,66 @@
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
     <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
@@ -1192,12 +1192,12 @@
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
   </si>
   <si>
@@ -1207,63 +1207,63 @@
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
@@ -1273,10 +1273,25 @@
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
     <t>Literacy rate, youth female (% of females ages 15-24)</t>
@@ -1285,24 +1300,9 @@
     <t>Literacy rate, youth male (% of males ages 15-24)</t>
   </si>
   <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -1330,12 +1330,12 @@
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
     <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
@@ -1360,12 +1360,12 @@
     <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
@@ -1381,12 +1381,12 @@
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
@@ -1399,45 +1399,48 @@
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
     <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
   </si>
   <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
     <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
@@ -1448,9 +1451,6 @@
   </si>
   <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Years</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.988842309791257</v>
+        <v>1.990826436775384</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.914692037463689</v>
+        <v>1.917394229451596</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912291453858347</v>
+        <v>1.906679407174871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.633552807497978</v>
+        <v>1.632900610280108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.633552807497978</v>
+        <v>1.629773518004402</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.632900610280108</v>
+        <v>1.629773518004402</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.577727137869035</v>
+        <v>1.57394784837546</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522080414131914</v>
+        <v>1.522425877472163</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52129209062409</v>
+        <v>1.522080414131914</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.515538153278181</v>
+        <v>1.515396415337445</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.515396415337445</v>
+        <v>1.514404366430109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.48873759843044</v>
+        <v>1.491178389561707</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.470606402632343</v>
+        <v>1.470807791388344</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.468933893681113</v>
+        <v>1.470807791388344</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.468933893681113</v>
+        <v>1.468462410057083</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.466364980934674</v>
+        <v>1.465643480213174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.447622112371779</v>
+        <v>1.448614175863842</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.403317369659252</v>
+        <v>1.404309433151316</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.403317369659252</v>
+        <v>1.404309433151316</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.397261740723117</v>
+        <v>1.403791936278443</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.390993907229355</v>
+        <v>1.389860120381283</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.389768784999986</v>
+        <v>1.388634998151913</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.388549069439998</v>
+        <v>1.387415282591925</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.37247422402914</v>
+        <v>1.371340437181068</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.360535274100759</v>
+        <v>1.360775370139174</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.357915606423074</v>
+        <v>1.356781819575002</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.345980521619296</v>
+        <v>1.34758308572186</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.329392869194552</v>
+        <v>1.327739430041113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.326338248175977</v>
+        <v>1.326421164718781</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.325429101226717</v>
+        <v>1.323692745530475</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.31228446975835</v>
+        <v>1.310160571658704</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.310160571658704</v>
+        <v>1.305996915454922</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.297093584773203</v>
+        <v>1.295413752486827</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.29459188214745</v>
+        <v>1.294310350615918</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.293799056354624</v>
+        <v>1.293088524394092</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.278356502058479</v>
+        <v>1.279348565550542</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.276827982765971</v>
+        <v>1.276261089341935</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.275181202966622</v>
+        <v>1.274644434313911</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.273186168157179</v>
+        <v>1.274349460779194</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.271070951335271</v>
+        <v>1.274178231649243</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.263635252848657</v>
+        <v>1.26462731634072</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.26172162968491</v>
+        <v>1.260587842836837</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.259451878205099</v>
+        <v>1.258837966806374</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.257919989495525</v>
+        <v>1.256786202647453</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.22747838566901</v>
+        <v>1.226344598820937</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.216195170650133</v>
+        <v>1.213821997822555</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.213174999892948</v>
+        <v>1.21155903636833</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.210236285045578</v>
+        <v>1.206002021495571</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.181954878991701</v>
+        <v>1.181473201494645</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.181473201494645</v>
+        <v>1.18089931400423</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.18089931400423</v>
+        <v>1.180292101233464</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.180292101233464</v>
+        <v>1.180191210561366</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.172450453300301</v>
+        <v>1.170706165841728</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.147078112569409</v>
+        <v>1.146196278354241</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.142852062305951</v>
+        <v>1.141270379382615</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.138523980990866</v>
+        <v>1.138180582728575</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.138180582728575</v>
+        <v>1.137942421682024</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.135193972566082</v>
+        <v>1.137663108368551</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.128572077161806</v>
+        <v>1.129453911376973</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.111235487834874</v>
+        <v>1.11131903002368</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.095735655871924</v>
+        <v>1.094192445995381</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.090368451137046</v>
+        <v>1.089824573913324</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.089824573913324</v>
+        <v>1.089171676130747</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.086891448427694</v>
+        <v>1.088025235275766</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.079424588821944</v>
+        <v>1.078290801973872</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.070610699680902</v>
+        <v>1.070549206772176</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.069829709669801</v>
+        <v>1.069834027685835</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.054421463527992</v>
+        <v>1.05400917740142</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.047583562413359</v>
+        <v>1.046474947154965</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.046474947154965</v>
+        <v>1.042692814025336</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.042692814025336</v>
+        <v>1.04036167769237</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.04036167769237</v>
+        <v>1.039329550990094</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.039329550990094</v>
+        <v>1.038701038715619</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.039329550990094</v>
+        <v>1.03635912084061</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.03635912084061</v>
+        <v>1.030679437513476</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.035998229669385</v>
+        <v>1.029104965879039</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.033405067789417</v>
+        <v>1.028834840844773</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2953,7 +2953,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.030679437513476</v>
+        <v>1.028466748744405</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.029104965879039</v>
+        <v>1.022613942121414</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2969,7 +2969,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.028834840844773</v>
+        <v>1.022462831980455</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.027899855320368</v>
+        <v>1.019929491734621</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.022613942121414</v>
+        <v>1.018900357191945</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2993,7 +2993,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.018900357191945</v>
+        <v>1.016316585661056</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.018840368469299</v>
+        <v>1.014148530334235</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.016316585661056</v>
+        <v>1.013510972057971</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.014148530334235</v>
+        <v>1.013015284207853</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3025,7 +3025,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.013015284207853</v>
+        <v>1.012390326700916</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.012390326700916</v>
+        <v>1.010764614270654</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.010764614270654</v>
+        <v>1.010419586515743</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3049,7 +3049,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.010419586515743</v>
+        <v>0.9961179409497678</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.9961179409497678</v>
+        <v>0.9932249742459298</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9932249742459298</v>
+        <v>0.9926509542438131</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9926509542438131</v>
+        <v>0.9920151631376315</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9920151631376315</v>
+        <v>0.9895966953047466</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9788408680273983</v>
+        <v>0.9776219177440493</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9776219177440493</v>
+        <v>0.9762458764193225</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9762458764193225</v>
+        <v>0.9748271910706983</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9748271910706983</v>
+        <v>0.9739028184122005</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9739028184122005</v>
+        <v>0.9723250100848273</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9552392363801601</v>
+        <v>0.9547189725303278</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9547189725303278</v>
+        <v>0.9546014812781192</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.953304981729441</v>
+        <v>0.9519444375117541</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9419023173152676</v>
+        <v>0.9424692107393042</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3369,7 +3369,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9374833801162739</v>
+        <v>0.9379675919388224</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9323147936965261</v>
+        <v>0.9357390926577005</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9286875559513716</v>
+        <v>0.9323147936965261</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9231737375632085</v>
+        <v>0.9301362835905755</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9190036611433221</v>
+        <v>0.9169698978449583</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.8827651828089813</v>
+        <v>0.8837401299537007</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.8579516712101587</v>
+        <v>0.8611567994152869</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.8467104520795177</v>
+        <v>0.8477025155715809</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.8299282916395305</v>
+        <v>0.8469399956623231</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.8279922388350804</v>
+        <v>0.8269128029730359</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.8217200031788894</v>
+        <v>0.7983220463983927</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.8013030271248673</v>
+        <v>0.7906791258851005</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.7908302777798539</v>
+        <v>0.7903085480121232</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.7887212464248217</v>
+        <v>0.7894307024069855</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.7478384228644614</v>
+        <v>0.7491611741872126</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.7416201901082986</v>
+        <v>0.7381244901744946</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.7369034889534933</v>
+        <v>0.7365109656926561</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.7293993374448675</v>
+        <v>0.731053303760608</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.7231262460355312</v>
+        <v>0.7197462078573196</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.718460679622047</v>
+        <v>0.7195797575907417</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.7166457691902517</v>
+        <v>0.7186677207901018</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.7133828180110693</v>
+        <v>0.7078597255832153</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6998948986410369</v>
+        <v>0.7013902915285759</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6982791382673352</v>
+        <v>0.6987459916753651</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.6981990060698482</v>
+        <v>0.6987459916753651</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.6981790982513285</v>
+        <v>0.6984703972165354</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.6934357431953941</v>
+        <v>0.693635611553157</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.6910938144621293</v>
+        <v>0.6907641977712136</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.6542612208144589</v>
+        <v>0.6529657124642203</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6528983990072152</v>
+        <v>0.6359152891977768</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6347115784284207</v>
+        <v>0.6285196445428558</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.628853363819537</v>
+        <v>0.628365039063679</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.628365039063679</v>
+        <v>0.6274288623950353</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.617677747062551</v>
+        <v>0.6138553012510439</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.6157466560835758</v>
+        <v>0.6136967322459839</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.614001927965222</v>
+        <v>0.6133214148070731</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.6089479346274502</v>
+        <v>0.6046758131584424</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.6080578001828414</v>
+        <v>0.6041545511556994</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.6047127292685082</v>
+        <v>0.6039540283579896</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.6046758131584424</v>
+        <v>0.6032882278440066</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.6041545511556994</v>
+        <v>0.6023933750429</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.6038958152167131</v>
+        <v>0.6013525595531499</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5852570742726249</v>
+        <v>0.5869139509295014</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3817,7 +3817,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5692346405821496</v>
+        <v>0.5691464571606326</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5653941808616194</v>
+        <v>0.5570175902554013</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.5554302886681</v>
+        <v>0.5556344520542718</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5531948050503726</v>
+        <v>0.5548301019686881</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5531429232964249</v>
+        <v>0.5547302248837263</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5436506802843795</v>
+        <v>0.5441175336924093</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5408980153637908</v>
+        <v>0.5413648687718207</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.5365763460022583</v>
+        <v>0.5374748326828154</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5273591426184201</v>
+        <v>0.5254033566728602</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5140569818295093</v>
+        <v>0.5172290274614073</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5076527385955567</v>
+        <v>0.5081195920035866</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.4965880705255006</v>
+        <v>0.4978090717465016</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4852719305544242</v>
+        <v>0.4861511814900661</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.4788915386779158</v>
+        <v>0.4784191274912191</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4777604736058283</v>
+        <v>0.4772880624191316</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4764401255820343</v>
+        <v>0.4761108709347937</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4761108709347937</v>
+        <v>0.4754299198548475</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4705347023862789</v>
+        <v>0.4717908103185307</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.4692365799096372</v>
+        <v>0.4705347023862789</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.4679243064520271</v>
+        <v>0.4687641687229402</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4584874559215706</v>
+        <v>0.458464229038225</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4409935517334627</v>
+        <v>0.4385347449668817</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.4396866740500776</v>
+        <v>0.4383480490879599</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4352740166845448</v>
+        <v>0.4354448389240999</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4337028996599741</v>
+        <v>0.4348366865080469</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.432637325013205</v>
+        <v>0.4342726219315205</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4277486123140011</v>
+        <v>0.4323782419436308</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4255438977643582</v>
+        <v>0.4266776846124307</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4255110876164614</v>
+        <v>0.4228655849709586</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4236142724378389</v>
+        <v>0.4209687697923361</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.418011514832481</v>
+        <v>0.4153660121869782</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.416726088168399</v>
+        <v>0.4140805855228962</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.393071684136546</v>
+        <v>0.3962596259799502</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.390977102572825</v>
+        <v>0.3910192036147841</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.3907812009203953</v>
+        <v>0.3897866263823484</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3885682232226273</v>
+        <v>0.3895907247299191</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3875435811523205</v>
+        <v>0.389097529712108</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3869456610355164</v>
+        <v>0.3890345093822938</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3866798273842509</v>
+        <v>0.3869456610355164</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3857882571403204</v>
+        <v>0.3859902765845959</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.384225474784905</v>
+        <v>0.3859401555065043</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.379451724598475</v>
+        <v>0.3795704448134742</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.372108409966688</v>
+        <v>0.3747539126121908</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.37004869526247</v>
+        <v>0.3724996756546268</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3678629924331531</v>
+        <v>0.3705084950786559</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3678451029124445</v>
+        <v>0.3693331981505399</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3613369941054307</v>
+        <v>0.3644034614928298</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3612155196494258</v>
+        <v>0.36388016735012</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3603087387786914</v>
+        <v>0.3605457418252085</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3593740010515989</v>
+        <v>0.3599124926809296</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3581195351401136</v>
+        <v>0.3593740010515989</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3573577999818045</v>
+        <v>0.3581003853197007</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3563826239227279</v>
+        <v>0.3574208035918294</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3538493750204008</v>
+        <v>0.3563826239227279</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.35218062781627</v>
+        <v>0.3523466003027724</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3519646073967342</v>
+        <v>0.3523466003027724</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3512128134546999</v>
+        <v>0.3510874430935236</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3512128134546999</v>
+        <v>0.350196500832143</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3496982040351584</v>
+        <v>0.3485077278446822</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3476007366083467</v>
+        <v>0.3481853179031589</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3475160145220946</v>
+        <v>0.3476007366083467</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.344916924641846</v>
+        <v>0.3459016715655394</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3438653580055355</v>
+        <v>0.3440408318818271</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3406212350652154</v>
+        <v>0.3417734954980827</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3405892332708487</v>
+        <v>0.341088088473245</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3404592655154901</v>
+        <v>0.3409261189235198</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3385270306464683</v>
+        <v>0.3383878855938158</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3367946299824134</v>
+        <v>0.3373365544559921</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4409,7 +4409,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.335936905201659</v>
+        <v>0.3356041537919372</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3333850043347328</v>
+        <v>0.3321945281442564</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4425,7 +4425,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3326248358178814</v>
+        <v>0.3319112742734271</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4457,7 +4457,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3319112742734271</v>
+        <v>0.3306407088337544</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4465,7 +4465,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3302302364810781</v>
+        <v>0.3290397602906017</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3271500968851284</v>
+        <v>0.3264402455810758</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3244408232488718</v>
+        <v>0.3253785634441675</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3242711261672622</v>
+        <v>0.3237895993368387</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.3214153066158709</v>
+        <v>0.3232503470583956</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4505,7 +4505,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3192212298128816</v>
+        <v>0.3202248304253947</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4513,7 +4513,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.318529164084008</v>
+        <v>0.3175704676562163</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4521,7 +4521,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.3178892590446656</v>
+        <v>0.3173386878935316</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4529,7 +4529,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3178892590446656</v>
+        <v>0.3166987828541894</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4537,7 +4537,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.3175704676562163</v>
+        <v>0.3166987828541894</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4545,7 +4545,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3163011270978839</v>
+        <v>0.3136556244523813</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4553,7 +4553,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.3127428033892754</v>
+        <v>0.3115523271987994</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4561,7 +4561,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3099929586200436</v>
+        <v>0.3088024824295672</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4577,7 +4577,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3012944188003051</v>
+        <v>0.3021313417008193</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4585,7 +4585,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3007357026352295</v>
+        <v>0.3001039426098291</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4593,7 +4593,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3006432464627242</v>
+        <v>0.298090199989727</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4625,7 +4625,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2870118002124387</v>
+        <v>0.2856977795118405</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4633,7 +4633,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2864141873949189</v>
+        <v>0.2851299991532119</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2814266266567906</v>
+        <v>0.2849500385169759</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2809925640923394</v>
+        <v>0.2843662975669359</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.280424783733711</v>
+        <v>0.2819443551156955</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2777303232998207</v>
+        <v>0.2787042445567609</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2743968143695288</v>
+        <v>0.2731449293331005</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2743968143695288</v>
+        <v>0.2717513117240264</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2731449293331005</v>
+        <v>0.2717513117240264</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2706704375701079</v>
+        <v>0.2704883543214864</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2704883543214864</v>
+        <v>0.2682592005988873</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2702433275830143</v>
+        <v>0.2680249349246053</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2670328726094733</v>
+        <v>0.2674925007471702</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.265660896846281</v>
+        <v>0.2674925007471702</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2648751425111968</v>
+        <v>0.2657234955317835</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2646665014355019</v>
+        <v>0.2650369557021341</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2644481991025884</v>
+        <v>0.2646665014355019</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2637432023783268</v>
+        <v>0.2643873699639707</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2623204319196393</v>
+        <v>0.2630153942007785</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2623204319196393</v>
+        <v>0.260294775399057</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2610182801122825</v>
+        <v>0.2597676227730126</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2609207006824084</v>
+        <v>0.2587972626497785</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2609207006824084</v>
+        <v>0.2583684725259672</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2609207006824084</v>
+        <v>0.2582751980369057</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2609207006824084</v>
+        <v>0.2582751980369057</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2603317402826331</v>
+        <v>0.2582751980369057</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.260294775399057</v>
+        <v>0.2582751980369057</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2577260654093265</v>
+        <v>0.2581255644980101</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2576702433199125</v>
+        <v>0.2550247406744099</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2540340262343588</v>
+        <v>0.2548042612545098</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.253876499715245</v>
+        <v>0.2540340262343588</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2536123949978297</v>
+        <v>0.2519926696882915</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2515258162802616</v>
+        <v>0.2512309970697424</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.2468512323433385</v>
+        <v>0.2495972735055814</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2463619443202334</v>
+        <v>0.2476585089407428</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2448920580860807</v>
+        <v>0.2468287977282633</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.2448837885933748</v>
+        <v>0.2453506420014047</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.2429532935212422</v>
+        <v>0.2442057296978359</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.2392952818456984</v>
+        <v>0.2404290686937711</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.2314808378763054</v>
+        <v>0.2288353352308028</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.2273543179754451</v>
+        <v>0.2253701909913182</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.2273543179754451</v>
+        <v>0.2253701909913182</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.2273543179754451</v>
+        <v>0.2253701909913182</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.2273543179754451</v>
+        <v>0.2253701909913182</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.2205301075453237</v>
+        <v>0.2185486274172213</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.2185486274172213</v>
+        <v>0.2178846048998211</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.2175753145169999</v>
+        <v>0.2149298118714973</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.2139430496452401</v>
+        <v>0.2116170451051151</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.2116170451051151</v>
+        <v>0.2112975469997376</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.211517357146018</v>
+        <v>0.2088718545005155</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.2096054622487442</v>
+        <v>0.2086133987566807</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.2074238999686602</v>
+        <v>0.2069297459249126</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5153,7 +5153,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.2069297459249126</v>
+        <v>0.2064318364765967</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5169,7 +5169,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.2031493433892892</v>
+        <v>0.2043703446102905</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5177,7 +5177,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.18482847408161</v>
+        <v>0.1872794544737668</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5185,7 +5185,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.182789752025057</v>
+        <v>0.1837146953208111</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5193,7 +5193,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1825809084727386</v>
+        <v>0.182789752025057</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5273,7 +5273,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.156894091636385</v>
+        <v>0.1559020281443215</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1563803523797114</v>
+        <v>0.1557189767183356</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5289,7 +5289,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.1493866750775634</v>
+        <v>0.1488177995086879</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1447476202219535</v>
+        <v>0.1442185196928536</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1271223711756309</v>
+        <v>0.1259885843275581</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5353,7 +5353,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1215851266355197</v>
+        <v>0.1186750737254667</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5361,7 +5361,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1176884412828179</v>
+        <v>0.1165546544347449</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5377,7 +5377,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.1105778756595892</v>
+        <v>0.1076678227495362</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5385,7 +5385,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.1077403781234101</v>
+        <v>0.1067483146313466</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5393,7 +5393,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1077403781234101</v>
+        <v>0.1067483146313466</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5401,7 +5401,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.107139728597095</v>
+        <v>0.1042296756870422</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5409,7 +5409,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.1060286706263109</v>
+        <v>0.103118617716258</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5417,7 +5417,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.1053283905142661</v>
+        <v>0.1024183376042131</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5425,7 +5425,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.1053283905142661</v>
+        <v>0.1024183376042131</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5433,7 +5433,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.1007834117072279</v>
+        <v>0.09979134821516444</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5441,7 +5441,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.1007834117072279</v>
+        <v>0.09979134821516444</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5553,7 +5553,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.06316234627449457</v>
+        <v>0.06479764319281012</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5609,7 +5609,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.05537513991353005</v>
+        <v>0.06027186230570347</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5625,7 +5625,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.05364286458352407</v>
+        <v>0.05537513991353005</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5633,7 +5633,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.05060278255769757</v>
+        <v>0.05134242750047835</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5641,7 +5641,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.05026868731764589</v>
+        <v>0.05060278255769757</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5649,7 +5649,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.04818803003061412</v>
+        <v>0.05055329433784217</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5657,7 +5657,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.03738961638878813</v>
+        <v>0.05009485336600905</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.03138429767356676</v>
+        <v>0.03301959459188253</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5673,7 +5673,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.0296410270294718</v>
+        <v>0.0270750036422176</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5681,7 +5681,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.01922390068155178</v>
+        <v>0.02085919759986732</v>
       </c>
     </row>
   </sheetData>
